--- a/for Hector/Tom/sm1Left-lookup.xlsx
+++ b/for Hector/Tom/sm1Left-lookup.xlsx
@@ -108,7 +108,7 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>END_PM</t>
+          <t>End PM</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -151,8 +151,10 @@
           <t>Beg PM:   31.500</t>
         </is>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>33.0</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>End PM:   33.000</t>
+        </is>
       </c>
       <c r="H2" s="1" t="n">
         <v>1.5</v>
@@ -192,8 +194,10 @@
           <t>Beg PM:   10.800</t>
         </is>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>15.0</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>End PM:   15.000</t>
+        </is>
       </c>
       <c r="H3" s="1" t="n">
         <v>4.2</v>
@@ -233,8 +237,10 @@
           <t>Beg PM:   31.300</t>
         </is>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>34.8</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>End PM:   34.800</t>
+        </is>
       </c>
       <c r="H4" s="1" t="n">
         <v>3.5</v>
@@ -274,8 +280,10 @@
           <t>Beg PM:   15.000</t>
         </is>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>16.2</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>End PM:   16.200</t>
+        </is>
       </c>
       <c r="H5" s="1" t="n">
         <v>1.2</v>
@@ -315,8 +323,10 @@
           <t>Beg PM:   16.200</t>
         </is>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>17.4</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>End PM:   17.400</t>
+        </is>
       </c>
       <c r="H6" s="1" t="n">
         <v>1.2</v>
@@ -356,8 +366,10 @@
           <t>Beg PM:   25.700</t>
         </is>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>26.3</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>End PM:   26.300</t>
+        </is>
       </c>
       <c r="H7" s="1" t="n">
         <v>0.6</v>
@@ -397,8 +409,10 @@
           <t>Beg PM:    0.200</t>
         </is>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>10.726</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>End PM:   10.726</t>
+        </is>
       </c>
       <c r="H8" s="1" t="n">
         <v>10.526</v>
@@ -438,8 +452,10 @@
           <t>Beg PM:   35.360</t>
         </is>
       </c>
-      <c r="G9" s="1" t="n">
-        <v>36.4</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>End PM:   36.400</t>
+        </is>
       </c>
       <c r="H9" s="1" t="n">
         <v>1.04</v>
@@ -479,8 +495,10 @@
           <t>Beg PM:   18.000</t>
         </is>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>19.0</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>End PM:   19.000</t>
+        </is>
       </c>
       <c r="H10" s="1" t="n">
         <v>1.0</v>
@@ -520,8 +538,10 @@
           <t>Beg PM:   19.000</t>
         </is>
       </c>
-      <c r="G11" s="1" t="n">
-        <v>21.6</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>End PM:   21.600</t>
+        </is>
       </c>
       <c r="H11" s="1" t="n">
         <v>2.6</v>
@@ -561,8 +581,10 @@
           <t>Beg PM:   10.400</t>
         </is>
       </c>
-      <c r="G12" s="1" t="n">
-        <v>13.579</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>End PM:   13.579</t>
+        </is>
       </c>
       <c r="H12" s="1" t="n">
         <v>3.179</v>
@@ -602,8 +624,10 @@
           <t>Beg PM:   14.073</t>
         </is>
       </c>
-      <c r="G13" s="1" t="n">
-        <v>19.0</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>End PM:   19.000</t>
+        </is>
       </c>
       <c r="H13" s="1" t="n">
         <v>4.927</v>
@@ -643,8 +667,10 @@
           <t>Beg PM:   26.300</t>
         </is>
       </c>
-      <c r="G14" s="1" t="n">
-        <v>35.1</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>End PM:   35.100</t>
+        </is>
       </c>
       <c r="H14" s="1" t="n">
         <v>8.8</v>
@@ -684,8 +710,10 @@
           <t>Beg PM:   41.337</t>
         </is>
       </c>
-      <c r="G15" s="1" t="n">
-        <v>42.014</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>End PM:   42.014</t>
+        </is>
       </c>
       <c r="H15" s="1" t="n">
         <v>0.677</v>
@@ -725,8 +753,10 @@
           <t>Beg PM:   21.500</t>
         </is>
       </c>
-      <c r="G16" s="1" t="n">
-        <v>28.923</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>End PM:   28.923</t>
+        </is>
       </c>
       <c r="H16" s="1" t="n">
         <v>7.423</v>
@@ -766,8 +796,10 @@
           <t>Beg PM:   37.900</t>
         </is>
       </c>
-      <c r="G17" s="1" t="n">
-        <v>48.558</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>End PM:   48.558</t>
+        </is>
       </c>
       <c r="H17" s="1" t="n">
         <v>10.658</v>
@@ -807,8 +839,10 @@
           <t>Beg PM:    0.000</t>
         </is>
       </c>
-      <c r="G18" s="1" t="n">
-        <v>10.271</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>End PM:   10.271</t>
+        </is>
       </c>
       <c r="H18" s="1" t="n">
         <v>10.271</v>
@@ -848,8 +882,10 @@
           <t>Beg PM:   28.684</t>
         </is>
       </c>
-      <c r="G19" s="1" t="n">
-        <v>37.9</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>End PM:   37.900</t>
+        </is>
       </c>
       <c r="H19" s="1" t="n">
         <v>9.216</v>
@@ -876,10 +912,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>select a.ea, a.treatment, a.county, a.route, a.year, ('Beg PM: ' || to_char(a.beg_pm, 990.999)) as "Beg PM", a.end_pm, (a.end_pm-a.beg_pm) as length, a.budget_group from s1383currentl a 
+          <t>select a.ea, a.treatment, a.county, a.route, a.year, ('Beg PM: ' || to_char(a.beg_pm, 990.999)) as "Beg PM", ('End PM: ' || to_char(a.end_pm, 990.999)) as "End PM", (a.end_pm-a.beg_pm) as length, a.budget_group from s1383currentl a 
 where a.county = 'SM' 
 union  
-select b.ea, b.treatment, b.county, b.route, b.year, ('Beg PM: ' || to_char(b.beg_pm, 990.999)) as "Beg PM",  b.end_pm, (b.end_pm-b.beg_pm) as length, b.budget_group from s1383historyl b 
+select b.ea, b.treatment, b.county, b.route, b.year, ('Beg PM: ' || to_char(b.beg_pm, 990.999)) as "Beg PM",  ('End PM: ' || to_char(b.end_pm, 990.999)) as "End PM",  (b.end_pm-b.beg_pm) as length, b.budget_group from s1383historyl b 
 where b.county = 'SM' 
 order by year</t>
         </is>
